--- a/excel file/AVERAGE 1 (4) (1).xlsx
+++ b/excel file/AVERAGE 1 (4) (1).xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janvi\Desktop\Excel Exercise\Excel Practice WorkBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kajal\Documents\GITHUB\tops\excel file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9926202-565B-47ED-9659-470F3D9D61E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8611BC00-7800-4246-85AF-0595DD7D7D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4B56F38-D64E-4259-B219-6B5B05364F51}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E4B56F38-D64E-4259-B219-6B5B05364F51}"/>
   </bookViews>
   <sheets>
     <sheet name="AVERAGE 1 - Question" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -90,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,7 +235,9 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{EB7893CD-57C7-41C9-9D6E-85E9E452B487}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9E21A124-C392-4513-A6E5-7CE6112FFF4E}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -538,17 +549,17 @@
   <dimension ref="A3:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.59765625" customWidth="1"/>
+    <col min="4" max="4" width="7.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -559,7 +570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -570,7 +581,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -581,7 +592,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -592,7 +603,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
@@ -603,7 +614,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -614,7 +625,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -625,7 +636,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
@@ -636,7 +647,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
@@ -647,7 +658,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
@@ -658,50 +669,62 @@
         <v>522</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="16" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="7">
+        <f>AVERAGE(D4:D6)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="18" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="7">
+        <f>AVERAGE(D7:D9)</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="20" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="7">
+        <f>AVERAGEA(D10:D12)</f>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="22" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="8">
+        <f>AVERAGE(D4:D12)</f>
+        <v>203</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
